--- a/Employee_Reports29/Prakyath Prabhakar Amin Q0522.xlsx
+++ b/Employee_Reports29/Prakyath Prabhakar Amin Q0522.xlsx
@@ -18,13 +18,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -69,15 +73,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +462,7 @@
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="52" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
@@ -553,11 +560,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>-47</v>
+        <v>-48</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -566,6 +573,27 @@
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr"/>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>YOU ARE LISTED AS ; STORE TEAM</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>&amp; THIS IS YOUR TRAINING DASHBOARD</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="inlineStr"/>
+      <c r="J4" s="4" t="inlineStr"/>
+      <c r="K4" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
